--- a/results/voters=50_projects=25_true-rankings=2_runs=1_costs-dist=betavariate/approved_voters.xlsx
+++ b/results/voters=50_projects=25_true-rankings=2_runs=1_costs-dist=betavariate/approved_voters.xlsx
@@ -568,7 +568,7 @@
         </is>
       </c>
       <c r="B2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
@@ -583,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>0</v>
@@ -616,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" t="b">
         <v>0</v>
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="Z2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -686,25 +686,25 @@
         <v>0</v>
       </c>
       <c r="N3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="b">
         <v>0</v>
       </c>
       <c r="R3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
       </c>
       <c r="T3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="X3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="b">
         <v>0</v>
       </c>
       <c r="Z3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -750,10 +750,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -762,13 +762,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="b">
         <v>0</v>
       </c>
       <c r="N4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="b">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
       </c>
       <c r="T4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="b">
         <v>0</v>
       </c>
       <c r="Z4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -835,16 +835,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="b">
         <v>0</v>
       </c>
       <c r="K5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
       </c>
       <c r="T5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="b">
         <v>0</v>
@@ -880,13 +880,13 @@
         <v>0</v>
       </c>
       <c r="X5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="b">
         <v>0</v>
       </c>
       <c r="Z5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -926,13 +926,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="b">
         <v>0</v>
       </c>
       <c r="N6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="b">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="b">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Z6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="B7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>0</v>
@@ -1008,13 +1008,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
       </c>
       <c r="N7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="b">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
       </c>
       <c r="T7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="b">
         <v>0</v>
       </c>
       <c r="Z7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -1081,16 +1081,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="b">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
       </c>
       <c r="T8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -1126,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="X8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="b">
         <v>0</v>
       </c>
       <c r="Z8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -1172,13 +1172,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="b">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Z9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
@@ -1245,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="b">
         <v>0</v>
       </c>
       <c r="K10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" t="b">
         <v>0</v>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" t="b">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -1318,25 +1318,25 @@
         <v>0</v>
       </c>
       <c r="F11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="b">
         <v>0</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" t="b">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="B12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
@@ -1406,10 +1406,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="b">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
       </c>
       <c r="T12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="b">
         <v>0</v>
@@ -1454,13 +1454,13 @@
         <v>0</v>
       </c>
       <c r="X12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="b">
         <v>0</v>
       </c>
       <c r="Z12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="b">
         <v>0</v>
@@ -1506,25 +1506,25 @@
         <v>0</v>
       </c>
       <c r="N13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="b">
         <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="b">
         <v>0</v>
       </c>
       <c r="R13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="b">
         <v>0</v>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="b">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="X13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="b">
         <v>0</v>
       </c>
       <c r="Z13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1552,13 +1552,13 @@
         </is>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="b">
         <v>0</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -1582,31 +1582,31 @@
         <v>0</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="b">
         <v>0</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="b">
         <v>0</v>
       </c>
       <c r="R14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="b">
         <v>0</v>
       </c>
       <c r="T14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="b">
         <v>0</v>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14" t="b">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         </is>
       </c>
       <c r="B15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="b">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1670,25 +1670,25 @@
         <v>0</v>
       </c>
       <c r="N15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
       </c>
       <c r="R15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
       </c>
       <c r="T15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="b">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="b">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1734,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="b">
         <v>0</v>
@@ -1752,25 +1752,25 @@
         <v>0</v>
       </c>
       <c r="N16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="b">
         <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="b">
         <v>0</v>
       </c>
       <c r="R16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" t="b">
         <v>0</v>
       </c>
       <c r="T16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
@@ -1782,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="X16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="b">
         <v>0</v>
       </c>
       <c r="Z16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="b">
         <v>0</v>
@@ -1834,25 +1834,25 @@
         <v>0</v>
       </c>
       <c r="N17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="b">
         <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
       </c>
       <c r="R17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
       </c>
       <c r="T17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" t="b">
         <v>0</v>
@@ -1864,13 +1864,13 @@
         <v>0</v>
       </c>
       <c r="X17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="b">
         <v>0</v>
       </c>
       <c r="Z17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
